--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>SearchValue</t>
   </si>
@@ -85,6 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -441,8 +442,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.03232421875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -468,6 +469,9 @@
       </c>
     </row>
     <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
       <c r="B3" s="2">
         <v>42005</v>
       </c>
@@ -496,10 +500,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
